--- a/Documents/main.xlsx
+++ b/Documents/main.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huy\Desktop\muaban.jp Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,8 +16,7 @@
     <sheet name="Dự toán" sheetId="4" r:id="rId2"/>
     <sheet name="Thiết kế cơ bản" sheetId="3" r:id="rId3"/>
     <sheet name="Giao diện Desktop và Các Module" sheetId="5" r:id="rId4"/>
-    <sheet name="List công việc" sheetId="6" r:id="rId5"/>
-    <sheet name="Tuyển dụng" sheetId="7" r:id="rId6"/>
+    <sheet name="Tuyển dụng" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="170">
   <si>
     <t>Dự án website thương mại muaban.jp</t>
     <phoneticPr fontId="3"/>
@@ -1254,86 +1253,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Đã hoành thành</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Thuê tên miền</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Đang tiến hành</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Tháng</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Năm</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Xong chi tết</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Xong phần thô</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Xong chi tết</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Chịu trách nhiệm</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Danh sách công việc</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HUY</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Thiết kế giao diện bản Desktop</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Trang chủ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Trang giới thiệu</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Nội dung web</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Trang sản phẩm</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Trang đăng nhập</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Trang đăng ký</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Danh sách công việc và dự kiến tiến độ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HUY / HIẾU</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>TUYỂN DỤNG</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1408,116 +1327,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Tổng quát</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Bản thử nghiệm</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Sửa đổi nâng cấp</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Bản chính thức</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Marketing</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a tiến hành</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Kênh Facebook</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Google Search</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Bing Search</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Yahoo Search</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Tiến độ hiện tại</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Bắt đầu marketing</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Thiết kế giao diện bản Mobile</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a tiến hành</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Thiết kế và code chức năng</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HIẾU / HUY</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Group1</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1547,107 +1356,6 @@
   </si>
   <si>
     <t xml:space="preserve">Thiết kế cơ bản </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Trang h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ớng dẫn mua hàng</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Trang h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ớng dẫn mở gian hàng</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Trang hỏi đáp</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mức độ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u tiên</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Cao</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Trung bình</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Thấp</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Trang liên hệ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1655,7 +1363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,13 +1458,6 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="24"/>
       <color theme="0"/>
       <name val="Verdana"/>
@@ -1777,7 +1478,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,20 +1515,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2105,24 +1794,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2144,9 +1822,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2167,18 +1842,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2213,10 +1876,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2228,15 +1912,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2244,15 +1919,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2264,49 +1930,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2591,47 +2224,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
@@ -2880,44 +2513,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -3000,43 +2633,43 @@
       <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="27" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>200</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D15" s="6" t="s">
@@ -3143,15 +2776,15 @@
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E21" s="6" t="s">
@@ -3196,19 +2829,19 @@
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>34</v>
@@ -3306,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3317,44 +2950,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="A1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -3368,18 +3001,18 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -3552,7 +3185,7 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:M23"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3564,1776 +3197,1830 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="32" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="50" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="P6" s="23"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="10" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="29" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="29" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="23" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23" t="s">
+      <c r="J25" s="18"/>
+      <c r="K25" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23" t="s">
+      <c r="L25" s="18"/>
+      <c r="M25" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23" t="s">
+      <c r="N25" s="18"/>
+      <c r="O25" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="P25" s="23"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23" t="s">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23" t="s">
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
     </row>
     <row r="35" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
+      <c r="A35" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23" t="s">
+      <c r="G35" s="18"/>
+      <c r="H35" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
+      <c r="I35" s="18"/>
+      <c r="J35" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23" t="s">
+      <c r="K35" s="18"/>
+      <c r="L35" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="M35" s="23"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="13"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="12"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="13"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="13"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="12"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="13"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="12"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="23" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="23" t="s">
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
     </row>
     <row r="53" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23" t="s">
+      <c r="A53" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23" t="s">
+      <c r="G53" s="18"/>
+      <c r="H53" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23" t="s">
+      <c r="I53" s="18"/>
+      <c r="J53" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23" t="s">
+      <c r="K53" s="18"/>
+      <c r="L53" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="M53" s="23"/>
+      <c r="M53" s="18"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="12"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="11"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="13"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="12"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="13"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="12"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="13"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="12"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="13"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="12"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="23" t="s">
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="23" t="s">
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
     </row>
     <row r="66" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
     </row>
     <row r="71" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23" t="s">
+      <c r="A71" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23" t="s">
+      <c r="G71" s="18"/>
+      <c r="H71" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23" t="s">
+      <c r="I71" s="18"/>
+      <c r="J71" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23" t="s">
+      <c r="K71" s="18"/>
+      <c r="L71" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="M71" s="23"/>
+      <c r="M71" s="18"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="12"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="11"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="13"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="12"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23" t="s">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="13"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="12"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="13"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="12"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="13"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="12"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="23" t="s">
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="23" t="s">
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="23"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="23"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="23"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="23"/>
-      <c r="P83" s="23"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
     </row>
     <row r="84" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="32" t="s">
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="32" t="s">
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="32" t="s">
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="34"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="36"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A87" s="35"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="37"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="45"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A88" s="35"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="37"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="45"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A89" s="35"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="37"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+      <c r="P89" s="45"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A90" s="35"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="37"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
+      <c r="P90" s="45"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A91" s="35"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="37"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="45"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A92" s="35"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="37"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="45"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A93" s="35"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="37"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="45"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A94" s="35"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="37"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="45"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="45"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A95" s="38"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="39"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="40"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="39"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
-      <c r="P97" s="23"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A98" s="23"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="23"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A99" s="23"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="23"/>
-      <c r="P99" s="23"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A97:P99"/>
+    <mergeCell ref="F77:H84"/>
+    <mergeCell ref="J77:L84"/>
+    <mergeCell ref="N77:P84"/>
+    <mergeCell ref="A86:D95"/>
+    <mergeCell ref="E86:H95"/>
+    <mergeCell ref="I86:L95"/>
+    <mergeCell ref="M86:P95"/>
+    <mergeCell ref="A68:P69"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I72"/>
+    <mergeCell ref="J71:K72"/>
+    <mergeCell ref="L71:M72"/>
+    <mergeCell ref="A72:E84"/>
+    <mergeCell ref="F74:O75"/>
+    <mergeCell ref="A50:P51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:G54"/>
+    <mergeCell ref="H53:I54"/>
+    <mergeCell ref="J53:K54"/>
+    <mergeCell ref="L53:M54"/>
+    <mergeCell ref="A54:E66"/>
+    <mergeCell ref="F56:O57"/>
+    <mergeCell ref="F59:H66"/>
+    <mergeCell ref="J59:L66"/>
+    <mergeCell ref="N59:P66"/>
+    <mergeCell ref="N41:P48"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A36:E48"/>
+    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="H35:I36"/>
+    <mergeCell ref="J35:K36"/>
+    <mergeCell ref="L35:M36"/>
+    <mergeCell ref="F38:O39"/>
+    <mergeCell ref="F41:H48"/>
+    <mergeCell ref="J41:L48"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E26:G33"/>
+    <mergeCell ref="H26:J33"/>
+    <mergeCell ref="K26:M33"/>
+    <mergeCell ref="N26:P33"/>
+    <mergeCell ref="E6:N7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:P2"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
@@ -5350,60 +5037,6 @@
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="A25:D33"/>
     <mergeCell ref="E9:P10"/>
-    <mergeCell ref="E6:N7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E26:G33"/>
-    <mergeCell ref="H26:J33"/>
-    <mergeCell ref="K26:M33"/>
-    <mergeCell ref="N26:P33"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="N41:P48"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A36:E48"/>
-    <mergeCell ref="F35:G36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A50:P51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:G54"/>
-    <mergeCell ref="H53:I54"/>
-    <mergeCell ref="J53:K54"/>
-    <mergeCell ref="L53:M54"/>
-    <mergeCell ref="A54:E66"/>
-    <mergeCell ref="F56:O57"/>
-    <mergeCell ref="F59:H66"/>
-    <mergeCell ref="H35:I36"/>
-    <mergeCell ref="J35:K36"/>
-    <mergeCell ref="L35:M36"/>
-    <mergeCell ref="F38:O39"/>
-    <mergeCell ref="F41:H48"/>
-    <mergeCell ref="J41:L48"/>
-    <mergeCell ref="J59:L66"/>
-    <mergeCell ref="N59:P66"/>
-    <mergeCell ref="A68:P69"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="J71:K72"/>
-    <mergeCell ref="L71:M72"/>
-    <mergeCell ref="A72:E84"/>
-    <mergeCell ref="F74:O75"/>
-    <mergeCell ref="A97:P99"/>
-    <mergeCell ref="F77:H84"/>
-    <mergeCell ref="J77:L84"/>
-    <mergeCell ref="N77:P84"/>
-    <mergeCell ref="A86:D95"/>
-    <mergeCell ref="E86:H95"/>
-    <mergeCell ref="I86:L95"/>
-    <mergeCell ref="M86:P95"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5412,737 +5045,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="35.875" customWidth="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="23">
-        <v>2017</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="35"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6">
-        <v>7</v>
-      </c>
-      <c r="J6" s="6">
-        <v>8</v>
-      </c>
-      <c r="K6" s="6">
-        <v>9</v>
-      </c>
-      <c r="L6" s="6">
-        <v>10</v>
-      </c>
-      <c r="M6" s="6">
-        <v>11</v>
-      </c>
-      <c r="N6" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="38"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
-    </row>
-    <row r="9" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="58"/>
-      <c r="B15" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="58"/>
-      <c r="B16" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="58"/>
-      <c r="B17" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="58"/>
-      <c r="B18" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="58"/>
-      <c r="B19" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="58"/>
-      <c r="B20" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="58"/>
-      <c r="B22" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="23"/>
-      <c r="B24" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="C5:C7"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
+      <c r="A1" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6162,17 +5115,17 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -6192,12 +5145,12 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
